--- a/jpcore-r4/feature/swg5-immunizationへのJPCore参照等/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg5-immunizationへのJPCore参照等/StructureDefinition-jp-patient.xlsx
@@ -548,16 +548,14 @@
   </si>
   <si>
     <t>An identifier for this patient.
-この患者の識別子。</t>
+この患者の識別子。【詳細参照】</t>
   </si>
   <si>
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。
 Patient.identifier.system には、
 　urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号
 を使用する。
-医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関番号（都道府県2桁、保険点数表コード1桁、保険医療機関番号７桁を連結したもの）または、特定健診・特定保健指導機関の医療機関番号10桁の先頭に１をつけた11桁とする。
-保険点数表コード1桁は医科は１，歯科は３である。
-医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとして、その先頭に１をつけた11桁とする。
+医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-patient.html#医療機関コード)を参照すること。
 例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
 なお、urn:oid:1.2.392.100495.20.3.51　の部分は、厚生労働省 電子処方箋CDA 記述仕様第1版（平成30年7月）付表2 OID一覧において患者番号として割り当てられたOIDのURL型である。
 地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。</t>
@@ -858,8 +856,7 @@
 ・ミドルネームがある場合は、given に指定する（givenは繰り返し可能）
 ・姓名に分割できない場合は、HumanName.text にフルネームを指定する。
 ・各名前パートとtext は、両方存在してもよい。
-・漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する。
-・漢字、カナの指定がない場合やローマ字名の場合などはデフォルトスライスが適用される。</t>
+・漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する。</t>
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.
